--- a/example_charts.xlsx
+++ b/example_charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Linhas e Áreas" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,19 @@
     <sheet name="Radar e Pareto" sheetId="4" r:id="rId4"/>
     <sheet name="Histograma" sheetId="5" r:id="rId5"/>
     <sheet name="Pizza e Rosca" sheetId="6" r:id="rId6"/>
+    <sheet name="Cascata e Funil" sheetId="7" r:id="rId7"/>
+    <sheet name="Dispersão, Superficie e Bolhas" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Colunas e Barras'!$A$4:$B$9</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Map de Árvore  e Explosão Solar'!$A$4:$B$20</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Map de Árvore  e Explosão Solar'!$C$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Map de Árvore  e Explosão Solar'!$C$4:$C$20</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Map de Árvore  e Explosão Solar'!$A$4:$B$20</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Map de Árvore  e Explosão Solar'!$C$3</definedName>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Mês</t>
   </si>
@@ -220,6 +228,54 @@
   <si>
     <t>Pizza</t>
   </si>
+  <si>
+    <t>Evolução dos Valores com foco em crescimento/decrescimento</t>
+  </si>
+  <si>
+    <t>1º TRI 23</t>
+  </si>
+  <si>
+    <t>2º TRI 23</t>
+  </si>
+  <si>
+    <t>3º TRI 23</t>
+  </si>
+  <si>
+    <t>4º TRI 23</t>
+  </si>
+  <si>
+    <t>Cascata</t>
+  </si>
+  <si>
+    <t>Afunilamento de valores</t>
+  </si>
+  <si>
+    <t>Clientes que não responderam</t>
+  </si>
+  <si>
+    <t>Após 1º aviso</t>
+  </si>
+  <si>
+    <t>Após 2º aviso</t>
+  </si>
+  <si>
+    <t>Após 3º aviso</t>
+  </si>
+  <si>
+    <t>Após 4º aviso</t>
+  </si>
+  <si>
+    <t>Valores cartesianos</t>
+  </si>
+  <si>
+    <t>Y=X^2+ 1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +345,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +415,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3054,6 +3132,364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dispersão, Superficie e Bolhas'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dispersão, Superficie e Bolhas'!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dispersão, Superficie e Bolhas'!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C989-417A-BB4C-D90E0461DCF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442265424"/>
+        <c:axId val="442266672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442265424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442266672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442266672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442265424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3212,6 +3648,53 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{B4B15F0B-E1AC-4A46-B1A3-216D3E05F9A5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>Vendas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3261,6 +3744,86 @@
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -5119,6 +5682,981 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9457,6 +10995,114 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -10237,7 +11883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -10528,4 +12174,336 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>50000</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>4500</v>
+      </c>
+      <c r="E4">
+        <v>-3000</v>
+      </c>
+      <c r="F4">
+        <v>36000</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>100000</v>
+      </c>
+      <c r="N4">
+        <v>70000</v>
+      </c>
+      <c r="O4">
+        <v>60000</v>
+      </c>
+      <c r="P4">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>-4</v>
+      </c>
+      <c r="B7" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>-3</v>
+      </c>
+      <c r="B8" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>